--- a/fuentes/contenidos/grado11/guion05/Solicitud_grafica_MA_11_06_CO_REC20.xlsx
+++ b/fuentes/contenidos/grado11/guion05/Solicitud_grafica_MA_11_06_CO_REC20.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hX79YNGfHMUCcosWMoH0GQuhNo2gkebFrfW3do2TOcvwqaujU9m0uwOL5UkRtWEspAy/ISD2JB8+jf057W9mVA==" workbookSaltValue="uRz/CDpmZ5ecKheoN1C0Jw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20550" windowHeight="10065" tabRatio="500"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20550" windowHeight="10065" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
